--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01233270963285742</v>
+        <v>0.0118754148541682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02828581959112992</v>
+        <v>0.02993239609737654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02426818967795614</v>
+        <v>0.02418759932870348</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03461246033818968</v>
+        <v>0.03426152710660044</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05266316550237475</v>
+        <v>0.0547968875633992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04094946054082945</v>
+        <v>0.04009966034620255</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01159178232379718</v>
+        <v>0.01165274318921132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01948958194066808</v>
+        <v>0.01898863758411639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01755185845680405</v>
+        <v>0.0175553684551032</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02656603338581924</v>
+        <v>0.02671588415682911</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03285485147442679</v>
+        <v>0.03329730307001472</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02724124682496803</v>
+        <v>0.02774527855632749</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01078604898646087</v>
+        <v>0.01054599898994444</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01578517894379086</v>
+        <v>0.01596137393304309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01494875623861193</v>
+        <v>0.01489060123574773</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03164714736354238</v>
+        <v>0.03130591336724576</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03048219947372185</v>
+        <v>0.02990784108243217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.027599095189499</v>
+        <v>0.0272974832223082</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01336609614569325</v>
+        <v>0.01336609614569326</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01025251972128337</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008324764655732184</v>
+        <v>0.008119661836195837</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00609506655836795</v>
+        <v>0.006065956442349207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008088901466430678</v>
+        <v>0.008494185984386378</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02108545093476045</v>
+        <v>0.02093130988182723</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01630504147303431</v>
+        <v>0.01563528306565965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01615787704629358</v>
+        <v>0.01636504277375239</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01329020867181332</v>
+        <v>0.01324799146647851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01974188822793144</v>
+        <v>0.01978082769831697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01765568259826845</v>
+        <v>0.0173871068736732</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02214223327803938</v>
+        <v>0.0217328853778666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02703273091043229</v>
+        <v>0.02759274529946233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02329361112896728</v>
+        <v>0.02310628246685446</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6143</v>
+        <v>5915</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17622</v>
+        <v>18648</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27208</v>
+        <v>27118</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17241</v>
+        <v>17067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32810</v>
+        <v>34139</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45910</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11130</v>
+        <v>11188</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21734</v>
+        <v>21176</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36426</v>
+        <v>36433</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25507</v>
+        <v>25651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36639</v>
+        <v>37132</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56534</v>
+        <v>57580</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11287</v>
+        <v>11036</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16537</v>
+        <v>16722</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31305</v>
+        <v>31183</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33118</v>
+        <v>32761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31934</v>
+        <v>31333</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57796</v>
+        <v>57164</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8120</v>
+        <v>7920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5549</v>
+        <v>5522</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15254</v>
+        <v>16018</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20568</v>
+        <v>20417</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14843</v>
+        <v>14234</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30470</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>46252</v>
+        <v>46106</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>72969</v>
+        <v>73113</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>126704</v>
+        <v>124776</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77059</v>
+        <v>75635</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>99918</v>
+        <v>101988</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>167163</v>
+        <v>165819</v>
       </c>
     </row>
     <row r="24">
